--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230811ZDH01</t>
+          <t>20230824ZDH02</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCA1</t>
+          <t>20230811Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230811ZDH02</t>
+          <t>20230824ZDH03</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCB2</t>
+          <t>20230811Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230824ZDH02</t>
+          <t>20230906ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCB2</t>
+          <t>20230906Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230824ZDH03</t>
+          <t>20230906ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCC3</t>
+          <t>20230906Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230811ZDH03</t>
+          <t>20230906ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCC3</t>
+          <t>20230906Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230811ZDH04</t>
+          <t>20230906ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230811Novaseq-5FCD4</t>
+          <t>20230906Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230906ZDH01</t>
+          <t>20230908ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCA1</t>
+          <t>20230908Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230906ZDH02</t>
+          <t>20230908ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCB2</t>
+          <t>20230908Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230906ZDH03</t>
+          <t>20230908ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCC3</t>
+          <t>20230908Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230906ZDH04</t>
+          <t>20230908ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230906Novaseq-5FCD4</t>
+          <t>20230908Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH01</t>
+          <t>20230911ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCA1</t>
+          <t>20230911Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH02</t>
+          <t>20230911ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCB2</t>
+          <t>20230911Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH03</t>
+          <t>20230911ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCC3</t>
+          <t>20230911Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH04</t>
+          <t>20230911ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCD4</t>
+          <t>20230911Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230911ZDH01</t>
+          <t>20230912ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCA1</t>
+          <t>20230912Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230911ZDH02</t>
+          <t>20230912ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCB2</t>
+          <t>20230912Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230911ZDH03</t>
+          <t>20230912ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCC3</t>
+          <t>20230912Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230911ZDH04</t>
+          <t>20230912ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230911Novaseq-5FCD4</t>
+          <t>20230912Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230912ZDH01</t>
+          <t>20230915ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCA1</t>
+          <t>20230915Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230912ZDH02</t>
+          <t>20230915ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCB2</t>
+          <t>20230915Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230912ZDH03</t>
+          <t>20230915ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCC3</t>
+          <t>20230915Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230912ZDH04</t>
+          <t>20230915ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCD4</t>
+          <t>20230915Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230915ZDH01</t>
+          <t>20230918ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCA1</t>
+          <t>20230918Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230915ZDH02</t>
+          <t>20230918ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCB2</t>
+          <t>20230918Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230915ZDH03</t>
+          <t>20230918ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCC3</t>
+          <t>20230918Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230915ZDH04</t>
+          <t>20230918ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230915Novaseq-5FCD4</t>
+          <t>20230918Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH01</t>
+          <t>20230912ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCA1</t>
+          <t>20230912Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20230912ZDH01</t>
+          <t>20240115ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20230912Novaseq-5FCA1</t>
+          <t>20240115Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH02</t>
+          <t>20240115ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCB2</t>
+          <t>20240115Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH03</t>
+          <t>20240115ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCC3</t>
+          <t>20240115Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20230908ZDH04</t>
+          <t>20240115ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20230908Novaseq-5FCD4</t>
+          <t>20240115Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH01</t>
+          <t>20231027ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCA1</t>
+          <t>20231027Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH02</t>
+          <t>20231027ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCB2</t>
+          <t>20231027Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH03</t>
+          <t>20231027ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCC3</t>
+          <t>20231027Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20240115ZDH04</t>
+          <t>20231027ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240115Novaseq-5FCD4</t>
+          <t>20231027Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20231027ZDH01</t>
+          <t>20240116ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCA1</t>
+          <t>20240116Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20231027ZDH02</t>
+          <t>20240116ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCB2</t>
+          <t>20240116Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20231027ZDH03</t>
+          <t>20240116ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCC3</t>
+          <t>20240116Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20231027ZDH04</t>
+          <t>20240116ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20231027Novaseq-5FCD4</t>
+          <t>20240116Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH01</t>
+          <t>20240429ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCA1</t>
+          <t>20240429Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH02</t>
+          <t>20240429ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCB2</t>
+          <t>20240429Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH03</t>
+          <t>20240429ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCC3</t>
+          <t>20240429Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20240116ZDH04</t>
+          <t>20240429ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240116Novaseq-5FCD4</t>
+          <t>20240429Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">

--- a/data/import_excel/定量-明细表非SR样本导入E.xlsx
+++ b/data/import_excel/定量-明细表非SR样本导入E.xlsx
@@ -479,12 +479,12 @@
     <row r="2" ht="16.5" customHeight="1" s="6">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH01</t>
+          <t>20240521ZDH01</t>
         </is>
       </c>
       <c r="B2" s="5" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCA1</t>
+          <t>20240521Novaseq-5FCA1</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -501,12 +501,12 @@
     <row r="3" ht="16.5" customHeight="1" s="6">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH02</t>
+          <t>20240521ZDH02</t>
         </is>
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCB2</t>
+          <t>20240521Novaseq-5FCB2</t>
         </is>
       </c>
       <c r="C3" s="1" t="inlineStr">
@@ -523,12 +523,12 @@
     <row r="4" ht="16.5" customHeight="1" s="6">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH03</t>
+          <t>20240521ZDH03</t>
         </is>
       </c>
       <c r="B4" s="5" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCC3</t>
+          <t>20240521Novaseq-5FCC3</t>
         </is>
       </c>
       <c r="C4" s="1" t="inlineStr">
@@ -545,12 +545,12 @@
     <row r="5" ht="16.5" customHeight="1" s="6">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>20240429ZDH04</t>
+          <t>20240521ZDH04</t>
         </is>
       </c>
       <c r="B5" s="5" t="inlineStr">
         <is>
-          <t>20240429Novaseq-5FCD4</t>
+          <t>20240521Novaseq-5FCD4</t>
         </is>
       </c>
       <c r="C5" s="1" t="inlineStr">
